--- a/biology/Botanique/Eucalyptus_pauciflora/Eucalyptus_pauciflora.xlsx
+++ b/biology/Botanique/Eucalyptus_pauciflora/Eucalyptus_pauciflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eucalyptus pauciflora (snow gum « Gommier des neiges ») est une espèce d'eucalyptus de type mallee poussant dans les régions sub-alpines de l'est de l'Australie. En plaine, ils peuvent atteindre une hauteur de 20 mètres.
 </t>
@@ -511,7 +523,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il en existe trois sous espèces :
 E. pauciflora subsp. pauciflora
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'écorce d’Eucalyptus pauciflora est lisse; blanche à gris clair, quelquefois d'un rouge-brun, tombant par plaques pour donner au tronc un aspect tacheté. les feuilles sont généralement lancéolées parfois presqu'ovales. Les fleurs blanches apparaissent d'octobre à janvier.
 L'arbre ne perd pas ses feuilles en hiver mais sous la neige, les branches ploient et se débarrassent ainsi de leur fardeau.
